--- a/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
+++ b/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangt\Desktop\20180526\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Legaltech\20180429\Legaltech\Business\Khách hàng gửi\20180526\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD8FF6-8DFB-4094-8750-4DCCFCF15CFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Schedule of Fees" sheetId="14" r:id="rId10"/>
     <sheet name="Certification TM" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2137,7 +2136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="58">
     <font>
       <sz val="11"/>
@@ -3275,12 +3274,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3291,9 +3290,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3333,36 +3362,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3392,30 +3391,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3697,11 +3696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3747,7 +3746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A3" s="105" t="s">
         <v>7</v>
       </c>
@@ -3884,8 +3883,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3898,7 +3897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4085,11 +4084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4149,11 +4148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4377,11 +4376,11 @@
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F13" location="'e-Application'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F16" location="'e-Monitor'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F19" location="'e-Watching'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F13" location="'e-Application'!A1" display="Learn more"/>
+    <hyperlink ref="F16" location="'e-Monitor'!A1" display="Learn more"/>
+    <hyperlink ref="F19" location="'e-Watching'!A1" display="Learn more"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4394,11 +4393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4577,9 +4576,9 @@
     <mergeCell ref="A8:G8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F13" location="Signup!A1" display="New Application" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F13" location="Signup!A1" display="New Application"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4592,10 +4591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -4630,10 +4631,10 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="23"/>
       <c r="D3" s="112" t="s">
         <v>20</v>
@@ -4678,15 +4679,15 @@
       <c r="G6" s="111"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -4707,14 +4708,14 @@
       <c r="G9" s="119"/>
     </row>
     <row r="10" spans="1:12" ht="17.45" customHeight="1">
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="26"/>
@@ -4767,14 +4768,14 @@
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="27"/>
@@ -4803,13 +4804,13 @@
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
@@ -4834,13 +4835,13 @@
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7">
@@ -4938,12 +4939,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:G6"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A7:G7"/>
@@ -4960,10 +4955,16 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4976,11 +4977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5245,8 +5246,8 @@
     <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5258,12 +5259,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5434,8 +5433,8 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C9" location="'New Applications'!A1" display="Login" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F10" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="C9" location="'New Applications'!A1" display="Login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5448,10 +5447,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -5731,11 +5730,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -5752,15 +5746,20 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A7" location="'Drafting New Application'!A1" display="Request for trademark registration" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="D7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="F7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="A7" location="'Drafting New Application'!A1" display="Request for trademark registration"/>
+    <hyperlink ref="B7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="C7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="D7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="E7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="F7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5773,17 +5772,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -5843,15 +5843,15 @@
       <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:8" s="40" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
       <c r="H6" s="52" t="s">
         <v>117</v>
       </c>
@@ -5860,12 +5860,12 @@
       <c r="A7" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
@@ -5874,12 +5874,12 @@
       <c r="B8" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:8" s="40" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
@@ -5887,36 +5887,36 @@
       <c r="B9" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:8" s="40" customFormat="1" ht="30.95" customHeight="1">
       <c r="A10" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="131" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
       <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:8" s="40" customFormat="1" ht="122.1" customHeight="1" thickBot="1">
       <c r="A11" s="48"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="136"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:8" s="40" customFormat="1" ht="15" customHeight="1">
@@ -5934,13 +5934,13 @@
     </row>
     <row r="13" spans="1:8" s="40" customFormat="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="137"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="50" t="s">
         <v>111</v>
       </c>
@@ -5949,11 +5949,11 @@
     </row>
     <row r="14" spans="1:8" s="40" customFormat="1">
       <c r="A14" s="48"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="137" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="50" t="s">
         <v>111</v>
       </c>
@@ -5963,10 +5963,10 @@
     <row r="15" spans="1:8" s="40" customFormat="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="137"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="94" t="s">
         <v>111</v>
       </c>
@@ -6019,41 +6019,41 @@
       <c r="A20" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="140" t="s">
+      <c r="G20" s="130" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="40" customFormat="1" ht="57" customHeight="1">
       <c r="A21" s="48"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="142" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
     </row>
     <row r="22" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="48"/>
@@ -6066,7 +6066,7 @@
       <c r="D22" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="141">
+      <c r="E22" s="136">
         <v>1</v>
       </c>
       <c r="F22" s="40">
@@ -6091,7 +6091,7 @@
       <c r="D23" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="141"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="40">
         <v>1</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="D24" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="141"/>
+      <c r="E24" s="136"/>
       <c r="F24" s="40">
         <v>1</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="D25" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="141"/>
+      <c r="E25" s="136"/>
       <c r="F25" s="40">
         <v>1</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="D26" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="141"/>
+      <c r="E26" s="136"/>
       <c r="F26" s="40">
         <v>1</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="D27" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="141"/>
+      <c r="E27" s="136"/>
       <c r="F27" s="40">
         <v>1</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="D28" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="141"/>
+      <c r="E28" s="136"/>
       <c r="F28" s="40">
         <v>1</v>
       </c>
@@ -6233,14 +6233,14 @@
         <f>F29-6</f>
         <v>1</v>
       </c>
-      <c r="H29" s="142" t="s">
+      <c r="H29" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
     </row>
     <row r="30" spans="1:13" s="40" customFormat="1" ht="15.75">
       <c r="A30" s="48"/>
@@ -6253,7 +6253,7 @@
       <c r="D30" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="141">
+      <c r="E30" s="136">
         <v>1</v>
       </c>
       <c r="F30" s="68">
@@ -6278,7 +6278,7 @@
       <c r="D31" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="141"/>
+      <c r="E31" s="136"/>
       <c r="F31" s="68">
         <v>1</v>
       </c>
@@ -6305,14 +6305,14 @@
         <f>F32-6</f>
         <v>-4</v>
       </c>
-      <c r="H32" s="148" t="s">
+      <c r="H32" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
     </row>
     <row r="33" spans="1:13" s="40" customFormat="1">
       <c r="A33" s="67"/>
@@ -6324,129 +6324,129 @@
       <c r="G33" s="73">
         <v>0</v>
       </c>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
     </row>
     <row r="34" spans="1:13" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="51"/>
-      <c r="B34" s="149" t="s">
+      <c r="B34" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="69">
         <f>G29+G33</f>
         <v>1</v>
       </c>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
     </row>
     <row r="35" spans="1:13" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="126" t="s">
+      <c r="B35" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
       <c r="G35" s="42">
         <v>0</v>
       </c>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
     </row>
     <row r="36" spans="1:13" s="40" customFormat="1">
       <c r="A36" s="45"/>
       <c r="B36" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
     </row>
     <row r="37" spans="1:13" s="40" customFormat="1">
       <c r="A37" s="45"/>
       <c r="B37" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
     </row>
     <row r="38" spans="1:13" s="40" customFormat="1">
       <c r="A38" s="45"/>
       <c r="B38" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
       <c r="G38" s="42"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
     </row>
     <row r="39" spans="1:13" s="40" customFormat="1">
       <c r="A39" s="63"/>
       <c r="B39" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="126" t="s">
+      <c r="C39" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
       <c r="G39" s="42"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
     </row>
     <row r="40" spans="1:13" s="40" customFormat="1">
       <c r="A40" s="63"/>
@@ -6456,12 +6456,12 @@
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
     </row>
     <row r="41" spans="1:13" s="40" customFormat="1">
       <c r="A41" s="51" t="s">
@@ -6477,12 +6477,12 @@
       <c r="E41" s="76"/>
       <c r="F41" s="76"/>
       <c r="G41" s="42"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
     </row>
     <row r="42" spans="1:13" s="40" customFormat="1">
       <c r="A42" s="45"/>
@@ -6496,71 +6496,71 @@
       <c r="E42" s="76"/>
       <c r="F42" s="76"/>
       <c r="G42" s="42"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
     </row>
     <row r="43" spans="1:13" s="40" customFormat="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="89" t="s">
         <v>111</v>
       </c>
       <c r="G43" s="42"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="148"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
     </row>
     <row r="44" spans="1:13" s="40" customFormat="1" ht="14.1" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="144" t="s">
+      <c r="B44" s="135"/>
+      <c r="C44" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="89" t="s">
         <v>111</v>
       </c>
       <c r="G44" s="42"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
     </row>
     <row r="45" spans="1:13" s="40" customFormat="1" ht="60">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="90" t="s">
         <v>110</v>
       </c>
       <c r="G45" s="42"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
     </row>
     <row r="46" spans="1:13" s="40" customFormat="1">
       <c r="A46" s="45"/>
@@ -6600,11 +6600,11 @@
       <c r="B49" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="89" t="s">
         <v>111</v>
       </c>
@@ -6613,11 +6613,11 @@
     <row r="50" spans="1:7" s="40" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
-      <c r="C50" s="144" t="s">
+      <c r="C50" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="89" t="s">
         <v>111</v>
       </c>
@@ -6626,9 +6626,9 @@
     <row r="51" spans="1:7" s="40" customFormat="1">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
       <c r="F51" s="60"/>
       <c r="G51" s="42"/>
     </row>
@@ -6636,13 +6636,13 @@
       <c r="A52" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="143"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
       <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" s="40" customFormat="1">
@@ -6655,10 +6655,10 @@
       <c r="C53" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="147" t="s">
+      <c r="D53" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="147"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="92" t="s">
         <v>111</v>
       </c>
@@ -6670,10 +6670,10 @@
       <c r="C54" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="147" t="s">
+      <c r="D54" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="147"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="89" t="s">
         <v>111</v>
       </c>
@@ -6684,11 +6684,11 @@
       <c r="B55" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="147" t="s">
+      <c r="C55" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="89" t="s">
         <v>111</v>
       </c>
@@ -6785,32 +6785,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H32:M45"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -6827,18 +6801,44 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H32:M45"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B52" location="'Schedule of Fees'!A1" display="[tự động map theo Schedule of fees, khách hàng không cần điền phần này" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="D52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="E52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="F52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="E15" location="'Certification TM'!A1" display="[tick box here]" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="D59" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="D60" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="B53" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="B52" location="'Schedule of Fees'!A1" display="[tự động map theo Schedule of fees, khách hàng không cần điền phần này"/>
+    <hyperlink ref="C52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="D52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="E52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="F52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="E15" location="'Certification TM'!A1" display="[tick box here]"/>
+    <hyperlink ref="D59" r:id="rId1"/>
+    <hyperlink ref="D60" r:id="rId2"/>
+    <hyperlink ref="B53" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6851,10 +6851,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
+++ b/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Legaltech\20180429\Legaltech\Business\Khách hàng gửi\20180526\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\20180526\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAAD8B-9856-4C00-ACB2-C54A493216F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -20,11 +21,12 @@
     <sheet name="Signup" sheetId="6" r:id="rId6"/>
     <sheet name="New Applications" sheetId="11" r:id="rId7"/>
     <sheet name="Drafting New Application" sheetId="12" r:id="rId8"/>
-    <sheet name="Documents Attached" sheetId="13" r:id="rId9"/>
-    <sheet name="Schedule of Fees" sheetId="14" r:id="rId10"/>
-    <sheet name="Certification TM" sheetId="15" r:id="rId11"/>
+    <sheet name="Trang_tính1" sheetId="16" r:id="rId9"/>
+    <sheet name="Documents Attached" sheetId="13" r:id="rId10"/>
+    <sheet name="Schedule of Fees" sheetId="14" r:id="rId11"/>
+    <sheet name="Certification TM" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +38,343 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lucy Lucy</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{A034D7FB-C69C-4295-A2B1-080CC055BF24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Video hoặc ảnh động</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lucy Lucy</author>
+  </authors>
+  <commentList>
+    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{EBC8699A-0EB6-4553-A917-BA6B247B30A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chị tuyến vừa mới thêm để tính thêm fee cái đơn nào mà có mục      YÊU CẦU HƯỞNG QUYỀN ƯU TIÊN thì mới có phần chọn mục này
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lucy Lucy</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{58B61CF6-C73A-4298-A5EF-591FAB0AE6E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ko cần hiển thị</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{DB23CC4C-8535-46BF-9A81-83DE01528877}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Có dấu + để add thêm sản phẩm</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lucy Lucy</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A3866A14-9CD9-4C12-AF79-A57F6B8C5459}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fix cứng là 1: vì chỉ nộp 1 đơn 1 lần
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E37755AB-F269-4DB1-BBAE-CF9FAF6422A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tổng số nhóm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2D721294-FF86-46AD-AE30-6F7138AD308F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Số sản phẩm  thừa mỗi nhóm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{31651915-300C-46DC-BBF9-133207ADFAB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy chính là số đơn ưu tiên</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{B153155A-0AA8-45A9-BF4C-8D45610FE347}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fix cứng = 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{C26FCE4A-288D-4944-A037-B8517EF01071}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:
+bằng tổng nhóm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{1F72FF72-572D-474F-8611-8CDAB3341CA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tổng sản phẩm tính thêm tiền</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{6AB20401-CE4E-474B-BB5A-E3B9EB3F1283}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+bằng số đơn: fix cứng là 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{E1E8B134-F84B-4BC8-95CE-D915EDF7822B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Số sản phẩm  thừa mỗi nhóm</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="237">
   <si>
     <t>About</t>
   </si>
@@ -389,9 +726,6 @@
     <t xml:space="preserve">Diagram / PPT </t>
   </si>
   <si>
-    <t>e-Watching</t>
-  </si>
-  <si>
     <t>Signup</t>
   </si>
   <si>
@@ -540,9 +874,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>which base [tick one of the three boxes if the infomation is suitable]</t>
@@ -2132,12 +2463,75 @@
   <si>
     <t>Power of Attorney (POA form download here)</t>
   </si>
+  <si>
+    <t>Đơn</t>
+  </si>
+  <si>
+    <t>Theo dõi đơn -&gt; phục vụ khách hàng</t>
+  </si>
+  <si>
+    <t>Quản lý đơn sau khi được công bố/cấp  bằng
+Ví dụ như gia hạn</t>
+  </si>
+  <si>
+    <t>e-Watching
+Mô tả = text hoặc text trong ảnh</t>
+  </si>
+  <si>
+    <t>Signup: là đăng ký thông tin: gồm các option: đăng ký member, xin giá, xin profile, other
+Gồm emai, option, text,</t>
+  </si>
+  <si>
+    <t>Đăng ký search</t>
+  </si>
+  <si>
+    <t>Có theera là email hoặc user mình cấp</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm ( tự nhập)</t>
+  </si>
+  <si>
+    <t>Key nsd chọn</t>
+  </si>
+  <si>
+    <t>Mã sau khi chọn key</t>
+  </si>
+  <si>
+    <t>Tổng SP</t>
+  </si>
+  <si>
+    <t>Tổng nhóm</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Gợi ý theo phần tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Fee 6 sản phẩm đầu tiên của 1 nhóm, sản phẩm t7 sẽ tính thêm tiền 1 sản phẩm</t>
+  </si>
+  <si>
+    <t>Số sản phầm tính thêm phí</t>
+  </si>
+  <si>
+    <t>1 ( = 7 -6)</t>
+  </si>
+  <si>
+    <t>Lucy Lucy:</t>
+  </si>
+  <si>
+    <t>Chị tuyến vừa mới thêm để tính thêm fee cái đơn nào mà có mục      YÊU CẦU HƯỞNG QUYỀN ƯU TIÊN thì mới có phần chọn mục này</t>
+  </si>
+  <si>
+    <t>Yes (1 hoặc  nhiều) cho điền số đơn ưu tiên</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2562,6 +2956,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2601,7 +3021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2944,6 +3364,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2971,7 +3428,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3229,6 +3686,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,32 +3861,67 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3696,11 +4203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3731,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I1" s="104"/>
     </row>
@@ -3743,49 +4250,49 @@
         <v>0</v>
       </c>
       <c r="I2" s="104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A3" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="104" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I4" s="104" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="104" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3793,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="32" t="s">
@@ -3801,42 +4308,42 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="10.7" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A7" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
+      <c r="A7" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:9" ht="67.7" customHeight="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
     </row>
     <row r="9" spans="1:9" ht="160.69999999999999" customHeight="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
@@ -3883,8 +4390,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3897,11 +4404,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="97.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="85"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30">
+      <c r="A21" s="82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25">
+      <c r="A25" s="77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3912,26 +4558,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
+      <c r="A1" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
     </row>
     <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="66">
         <v>1</v>
@@ -3943,7 +4589,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="74">
         <f>'Drafting New Application'!E32+'Schedule of Fees'!E29</f>
@@ -3956,7 +4602,7 @@
     </row>
     <row r="5" spans="1:3" ht="33">
       <c r="A5" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="74">
         <f>'Drafting New Application'!G34</f>
@@ -3969,7 +4615,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="74">
         <f>'Drafting New Application'!C42</f>
@@ -3982,7 +4628,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="66">
         <v>1</v>
@@ -3994,7 +4640,7 @@
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="74">
         <f>B4</f>
@@ -4007,7 +4653,7 @@
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="74">
         <f>B5</f>
@@ -4020,7 +4666,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="66">
         <v>1</v>
@@ -4032,7 +4678,7 @@
     </row>
     <row r="11" spans="1:3" ht="33">
       <c r="A11" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="74">
         <f>B5</f>
@@ -4044,26 +4690,26 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="154"/>
-      <c r="C12" s="157">
+      <c r="A12" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="159"/>
+      <c r="C12" s="162">
         <f>SUM(C3:C11)</f>
         <v>2152</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="1" thickBot="1">
-      <c r="A13" s="155" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="158"/>
+      <c r="A13" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="161"/>
+      <c r="C13" s="163"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="15" spans="1:3" ht="26.25">
       <c r="A15" s="77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4075,6 +4721,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4083,13 +4730,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -4098,18 +4743,18 @@
   <sheetData>
     <row r="2" spans="1:1" ht="26.25">
       <c r="A2" s="77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:1" ht="15.75" thickTop="1">
       <c r="A6" s="99" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4117,7 +4762,7 @@
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4125,7 +4770,7 @@
     </row>
     <row r="11" spans="1:1" ht="18.75">
       <c r="A11" s="102" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4133,7 +4778,7 @@
     </row>
     <row r="13" spans="1:1" ht="19.5" thickBot="1">
       <c r="A13" s="103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickTop="1"/>
@@ -4148,11 +4793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4163,10 +4808,10 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4184,40 +4829,40 @@
       </c>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="101.45" customHeight="1">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="A5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4225,42 +4870,45 @@
         <v>3</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="10.7" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="115" t="s">
+      <c r="H5" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="10.7" customHeight="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-    </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1">
-      <c r="A9" s="116" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="A9" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
         <v>17</v>
       </c>
@@ -4274,62 +4922,71 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="93" customHeight="1">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:8" ht="93" customHeight="1">
+      <c r="A12" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="110"/>
+      <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
       <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="F13" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="119.45" customHeight="1">
-      <c r="A15" s="105" t="s">
+    <row r="15" spans="1:8" ht="119.45" customHeight="1">
+      <c r="A15" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="114" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="H15" s="168" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="F16" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="118.7" customHeight="1">
-      <c r="A18" s="105" t="s">
+    <row r="18" spans="1:8" ht="118.7" customHeight="1">
+      <c r="A18" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="113" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="B18" s="110"/>
+      <c r="C18" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="H18" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="F19" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
@@ -4344,7 +5001,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -4376,14 +5033,15 @@
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="F13" location="'e-Application'!A1" display="Learn more"/>
-    <hyperlink ref="F16" location="'e-Monitor'!A1" display="Learn more"/>
-    <hyperlink ref="F19" location="'e-Watching'!A1" display="Learn more"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F13" location="'e-Application'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F16" location="'e-Monitor'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F19" location="'e-Watching'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4393,10 +5051,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4432,33 +5090,33 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="91.7" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4471,29 +5129,33 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="10.7" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
+      <c r="H7" s="169" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="169"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
@@ -4501,15 +5163,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="87.6" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
       <c r="H10" s="8"/>
     </row>
     <row r="12" spans="1:8">
@@ -4519,20 +5181,20 @@
     </row>
     <row r="13" spans="1:8">
       <c r="F13" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
@@ -4565,7 +5227,8 @@
       <c r="G16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:G3"/>
@@ -4576,9 +5239,9 @@
     <mergeCell ref="A8:G8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="F13" location="Signup!A1" display="New Application"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F13" location="Signup!A1" display="New Application" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4591,11 +5254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4631,33 +5294,33 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="125"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4665,29 +5328,29 @@
         <v>3</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="10.7" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -4698,24 +5361,24 @@
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
     </row>
     <row r="10" spans="1:12" ht="17.45" customHeight="1">
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="26"/>
@@ -4729,14 +5392,14 @@
       <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="29"/>
@@ -4750,14 +5413,14 @@
       <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="29"/>
@@ -4768,14 +5431,14 @@
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="27"/>
@@ -4786,14 +5449,14 @@
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="27"/>
@@ -4804,108 +5467,108 @@
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="21">
         <v>4</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="21">
         <v>4</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
       <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="21">
         <v>5</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
       <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="30" spans="1:7" ht="24.75">
       <c r="A30" s="24" t="s">
@@ -4963,8 +5626,8 @@
     <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4977,10 +5640,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -5015,33 +5678,33 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -5049,18 +5712,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="10.7" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="30" t="s">
@@ -5196,15 +5859,15 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
@@ -5246,8 +5909,8 @@
     <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5259,10 +5922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5298,47 +5963,49 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="112" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="A4" s="122" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="A4" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5"/>
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -5347,10 +6014,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -5365,7 +6032,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -5373,11 +6040,11 @@
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
+      <c r="A10" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
@@ -5385,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="39"/>
     </row>
@@ -5433,8 +6100,8 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" location="Signup!A1" display="Signup"/>
-    <hyperlink ref="C9" location="'New Applications'!A1" display="Login"/>
+    <hyperlink ref="F10" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C9" location="'New Applications'!A1" display="Login" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5447,12 +6114,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5487,215 +6152,215 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="112" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
     </row>
     <row r="5" spans="1:7" ht="10.7" customHeight="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A7" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A8" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A7" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A9" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A9" s="108" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A10" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A11" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A12" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A13" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A14" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A15" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A16" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A17" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A18" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A17" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A18" s="108" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A19" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A19" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7">
@@ -5753,13 +6418,13 @@
     <mergeCell ref="A21:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="A7" location="'Drafting New Application'!A1" display="Request for trademark registration"/>
-    <hyperlink ref="B7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
-    <hyperlink ref="C7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
-    <hyperlink ref="D7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
-    <hyperlink ref="E7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
-    <hyperlink ref="F7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A7" location="'Drafting New Application'!A1" display="Request for trademark registration" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="F7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5772,11 +6437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5786,10 +6451,10 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5806,198 +6471,213 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="45.6" customHeight="1">
+      <c r="A3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="112" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-    </row>
-    <row r="5" spans="1:8" ht="10.7" customHeight="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-    </row>
-    <row r="6" spans="1:8" s="40" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A6" s="148" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="40" customFormat="1" ht="30.95" customHeight="1">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="107"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="10.7" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="106"/>
+    </row>
+    <row r="6" spans="1:9" s="40" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A6" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="40" customFormat="1" ht="30.95" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
+        <v>97</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" s="40" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" s="40" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
       <c r="A9" s="48"/>
       <c r="B9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" ht="30.95" customHeight="1">
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" s="40" customFormat="1" ht="30.95" customHeight="1">
       <c r="A10" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="143"/>
+      <c r="D10" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="141" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
       <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" s="40" customFormat="1" ht="122.1" customHeight="1" thickBot="1">
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" s="40" customFormat="1" ht="122.1" customHeight="1" thickBot="1">
       <c r="A11" s="48"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="146"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" s="40" customFormat="1">
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" s="40" customFormat="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="147"/>
+      <c r="B13" s="135" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="152"/>
       <c r="E13" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" s="40" customFormat="1">
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" s="40" customFormat="1">
       <c r="A14" s="48"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="147"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="152"/>
       <c r="E14" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" s="40" customFormat="1">
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" s="40" customFormat="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="147"/>
+      <c r="C15" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="152"/>
       <c r="E15" s="94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" s="40" customFormat="1">
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" s="40" customFormat="1">
       <c r="A16" s="48"/>
       <c r="B16" s="62"/>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
       <c r="E16" s="70"/>
       <c r="F16" s="93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" s="40" customFormat="1">
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" s="40" customFormat="1">
       <c r="A17" s="48"/>
       <c r="B17" s="62"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="70"/>
       <c r="F17" s="93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:13" s="40" customFormat="1">
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" s="40" customFormat="1">
       <c r="A18" s="48"/>
       <c r="B18" s="62"/>
       <c r="C18" s="61"/>
@@ -6005,8 +6685,9 @@
       <c r="E18" s="70"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" s="40" customFormat="1">
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" s="40" customFormat="1">
       <c r="A19" s="48"/>
       <c r="B19" s="62"/>
       <c r="C19" s="61"/>
@@ -6014,217 +6695,226 @@
       <c r="E19" s="70"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:13" s="40" customFormat="1" ht="14.1" customHeight="1">
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:14" s="40" customFormat="1" ht="14.1" customHeight="1">
       <c r="A20" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="40" customFormat="1" ht="57" customHeight="1">
+      <c r="H20" s="109"/>
+    </row>
+    <row r="21" spans="1:14" s="40" customFormat="1" ht="57" customHeight="1">
       <c r="A21" s="48"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-    </row>
-    <row r="22" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+    </row>
+    <row r="22" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="136">
+      <c r="E22" s="141">
         <v>1</v>
       </c>
       <c r="F22" s="40">
         <v>1</v>
       </c>
       <c r="G22" s="62"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="109"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
       <c r="M22" s="72"/>
-    </row>
-    <row r="23" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N22" s="72"/>
+    </row>
+    <row r="23" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="136"/>
+        <v>140</v>
+      </c>
+      <c r="E23" s="141"/>
       <c r="F23" s="40">
         <v>1</v>
       </c>
       <c r="G23" s="62"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="109"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
-    </row>
-    <row r="24" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="136"/>
+        <v>140</v>
+      </c>
+      <c r="E24" s="141"/>
       <c r="F24" s="40">
         <v>1</v>
       </c>
       <c r="G24" s="62"/>
-      <c r="H24" s="72"/>
+      <c r="H24" s="109"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
       <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N24" s="72"/>
+    </row>
+    <row r="25" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="136"/>
+        <v>140</v>
+      </c>
+      <c r="E25" s="141"/>
       <c r="F25" s="40">
         <v>1</v>
       </c>
       <c r="G25" s="62"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
       <c r="M25" s="72"/>
-    </row>
-    <row r="26" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N25" s="72"/>
+    </row>
+    <row r="26" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="136"/>
+        <v>140</v>
+      </c>
+      <c r="E26" s="141"/>
       <c r="F26" s="40">
         <v>1</v>
       </c>
       <c r="G26" s="62"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="109"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
       <c r="M26" s="72"/>
-    </row>
-    <row r="27" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N26" s="72"/>
+    </row>
+    <row r="27" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="136"/>
+        <v>140</v>
+      </c>
+      <c r="E27" s="141"/>
       <c r="F27" s="40">
         <v>1</v>
       </c>
       <c r="G27" s="62"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="109"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
-    </row>
-    <row r="28" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N27" s="72"/>
+    </row>
+    <row r="28" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="136"/>
+        <v>140</v>
+      </c>
+      <c r="E28" s="141"/>
       <c r="F28" s="40">
         <v>1</v>
       </c>
       <c r="G28" s="62"/>
-      <c r="H28" s="72"/>
+      <c r="H28" s="109"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
       <c r="M28" s="72"/>
-    </row>
-    <row r="29" spans="1:13" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="N28" s="72"/>
+    </row>
+    <row r="29" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="62"/>
-      <c r="D29" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="65" t="s">
+        <v>152</v>
+      </c>
       <c r="F29" s="69">
         <f>SUM(F22:F28)</f>
         <v>7</v>
@@ -6233,68 +6923,70 @@
         <f>F29-6</f>
         <v>1</v>
       </c>
-      <c r="H29" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-    </row>
-    <row r="30" spans="1:13" s="40" customFormat="1" ht="15.75">
+      <c r="H29" s="73"/>
+      <c r="I29" s="136" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+    </row>
+    <row r="30" spans="1:14" s="40" customFormat="1" ht="15.75">
       <c r="A30" s="48"/>
       <c r="B30" s="62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="136">
+        <v>141</v>
+      </c>
+      <c r="E30" s="141">
         <v>1</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
       </c>
       <c r="G30" s="62"/>
-      <c r="H30" s="72"/>
+      <c r="H30" s="109"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="72"/>
       <c r="L30" s="72"/>
       <c r="M30" s="72"/>
-    </row>
-    <row r="31" spans="1:13" s="40" customFormat="1" ht="15.75">
+      <c r="N30" s="72"/>
+    </row>
+    <row r="31" spans="1:14" s="40" customFormat="1" ht="15.75">
       <c r="A31" s="48"/>
       <c r="B31" s="62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="136"/>
+        <v>142</v>
+      </c>
+      <c r="E31" s="141"/>
       <c r="F31" s="68">
         <v>1</v>
       </c>
       <c r="G31" s="62"/>
-    </row>
-    <row r="32" spans="1:13" s="40" customFormat="1">
+      <c r="H31" s="109"/>
+    </row>
+    <row r="32" spans="1:14" s="40" customFormat="1">
       <c r="A32" s="67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
       <c r="D32" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32" s="71">
-        <f>E22+E30</f>
         <v>2</v>
       </c>
       <c r="F32" s="69">
@@ -6305,16 +6997,17 @@
         <f>F32-6</f>
         <v>-4</v>
       </c>
-      <c r="H32" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-    </row>
-    <row r="33" spans="1:13" s="40" customFormat="1">
+      <c r="H32" s="73"/>
+      <c r="I32" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+    </row>
+    <row r="33" spans="1:14" s="40" customFormat="1">
       <c r="A33" s="67"/>
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
@@ -6324,131 +7017,138 @@
       <c r="G33" s="73">
         <v>0</v>
       </c>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-    </row>
-    <row r="34" spans="1:13" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H33" s="73"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+    </row>
+    <row r="34" spans="1:14" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="51"/>
-      <c r="B34" s="129" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
+      <c r="B34" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
       <c r="G34" s="69">
         <f>G29+G33</f>
         <v>1</v>
       </c>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-    </row>
-    <row r="35" spans="1:13" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H34" s="69"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="133"/>
+    </row>
+    <row r="35" spans="1:14" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
+        <v>98</v>
+      </c>
+      <c r="B35" s="132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="42">
         <v>0</v>
       </c>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-    </row>
-    <row r="36" spans="1:13" s="40" customFormat="1">
+      <c r="H35" s="42"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+    </row>
+    <row r="36" spans="1:14" s="40" customFormat="1">
       <c r="A36" s="45"/>
       <c r="B36" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
+        <v>85</v>
+      </c>
+      <c r="C36" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-    </row>
-    <row r="37" spans="1:13" s="40" customFormat="1">
+      <c r="H36" s="42"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+    </row>
+    <row r="37" spans="1:14" s="40" customFormat="1">
       <c r="A37" s="45"/>
       <c r="B37" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
+        <v>87</v>
+      </c>
+      <c r="C37" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-    </row>
-    <row r="38" spans="1:13" s="40" customFormat="1">
+      <c r="H37" s="42"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+    </row>
+    <row r="38" spans="1:14" s="40" customFormat="1">
       <c r="A38" s="45"/>
       <c r="B38" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
+        <v>86</v>
+      </c>
+      <c r="C38" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
       <c r="G38" s="42"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-    </row>
-    <row r="39" spans="1:13" s="40" customFormat="1">
+      <c r="H38" s="42"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+    </row>
+    <row r="39" spans="1:14" s="40" customFormat="1">
       <c r="A39" s="63"/>
       <c r="B39" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="127" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
+        <v>183</v>
+      </c>
+      <c r="C39" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
       <c r="G39" s="42"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-    </row>
-    <row r="40" spans="1:13" s="40" customFormat="1">
+      <c r="H39" s="42"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+    </row>
+    <row r="40" spans="1:14" s="40" customFormat="1">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="60"/>
@@ -6456,19 +7156,20 @@
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-    </row>
-    <row r="41" spans="1:13" s="40" customFormat="1">
+      <c r="H40" s="42"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+    </row>
+    <row r="41" spans="1:14" s="40" customFormat="1">
       <c r="A41" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="75">
         <v>0</v>
@@ -6477,17 +7178,20 @@
       <c r="E41" s="76"/>
       <c r="F41" s="76"/>
       <c r="G41" s="42"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-    </row>
-    <row r="42" spans="1:13" s="40" customFormat="1">
+      <c r="H41" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="133"/>
+    </row>
+    <row r="42" spans="1:14" s="40" customFormat="1" ht="51" customHeight="1">
       <c r="A42" s="45"/>
       <c r="B42" s="44" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="C42" s="76">
         <v>1</v>
@@ -6496,205 +7200,221 @@
       <c r="E42" s="76"/>
       <c r="F42" s="76"/>
       <c r="G42" s="42"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-    </row>
-    <row r="43" spans="1:13" s="40" customFormat="1">
+      <c r="H42" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+    </row>
+    <row r="43" spans="1:14" s="40" customFormat="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="135" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G43" s="42"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-    </row>
-    <row r="44" spans="1:13" s="40" customFormat="1" ht="14.1" customHeight="1">
+      <c r="H43" s="42"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+    </row>
+    <row r="44" spans="1:14" s="40" customFormat="1" ht="14.1" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" s="42"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-    </row>
-    <row r="45" spans="1:13" s="40" customFormat="1" ht="60">
+      <c r="H44" s="42"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
+    </row>
+    <row r="45" spans="1:14" s="40" customFormat="1" ht="60">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
+      <c r="C45" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G45" s="42"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
-    </row>
-    <row r="46" spans="1:13" s="40" customFormat="1">
+      <c r="H45" s="42"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+    </row>
+    <row r="46" spans="1:14" s="40" customFormat="1">
       <c r="A46" s="45"/>
       <c r="B46" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="91"/>
       <c r="D46" s="91"/>
       <c r="E46" s="91"/>
       <c r="F46" s="91"/>
       <c r="G46" s="42"/>
-    </row>
-    <row r="47" spans="1:13" s="40" customFormat="1">
+      <c r="H46" s="42"/>
+    </row>
+    <row r="47" spans="1:14" s="40" customFormat="1">
       <c r="A47" s="45"/>
       <c r="B47" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="91"/>
       <c r="D47" s="91"/>
       <c r="E47" s="91"/>
       <c r="F47" s="91"/>
       <c r="G47" s="42"/>
-    </row>
-    <row r="48" spans="1:13" s="40" customFormat="1">
+      <c r="H47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" s="40" customFormat="1">
       <c r="A48" s="45"/>
       <c r="B48" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="91"/>
       <c r="D48" s="91"/>
       <c r="E48" s="91"/>
       <c r="F48" s="91"/>
       <c r="G48" s="42"/>
-    </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+      <c r="H48" s="42"/>
+    </row>
+    <row r="49" spans="1:8" s="40" customFormat="1">
       <c r="A49" s="63"/>
       <c r="B49" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="133" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
+        <v>173</v>
+      </c>
+      <c r="C49" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G49" s="42"/>
-    </row>
-    <row r="50" spans="1:7" s="40" customFormat="1">
+      <c r="H49" s="42"/>
+    </row>
+    <row r="50" spans="1:8" s="40" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
-      <c r="C50" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
+      <c r="C50" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G50" s="42"/>
-    </row>
-    <row r="51" spans="1:7" s="40" customFormat="1">
+      <c r="H50" s="42"/>
+    </row>
+    <row r="51" spans="1:8" s="40" customFormat="1">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
       <c r="F51" s="60"/>
       <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:7" s="40" customFormat="1">
+      <c r="H51" s="42"/>
+    </row>
+    <row r="52" spans="1:8" s="40" customFormat="1">
       <c r="A52" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
+        <v>129</v>
+      </c>
+      <c r="B52" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
       <c r="G52" s="42"/>
-    </row>
-    <row r="53" spans="1:7" s="40" customFormat="1">
+      <c r="H52" s="42"/>
+    </row>
+    <row r="53" spans="1:8" s="40" customFormat="1">
       <c r="A53" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="E53" s="126"/>
+        <v>171</v>
+      </c>
+      <c r="D53" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="131"/>
       <c r="F53" s="92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G53" s="42"/>
-    </row>
-    <row r="54" spans="1:7" s="40" customFormat="1">
+      <c r="H53" s="42"/>
+    </row>
+    <row r="54" spans="1:8" s="40" customFormat="1">
       <c r="A54" s="51"/>
       <c r="B54" s="63"/>
       <c r="C54" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="126"/>
+        <v>176</v>
+      </c>
+      <c r="D54" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="131"/>
       <c r="F54" s="89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G54" s="42"/>
-    </row>
-    <row r="55" spans="1:7" s="40" customFormat="1" ht="30">
+      <c r="H54" s="42"/>
+    </row>
+    <row r="55" spans="1:8" s="40" customFormat="1" ht="30">
       <c r="A55" s="51"/>
       <c r="B55" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="126" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
+        <v>172</v>
+      </c>
+      <c r="C55" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
       <c r="F55" s="89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G55" s="42"/>
-    </row>
-    <row r="56" spans="1:7" s="40" customFormat="1">
+      <c r="H55" s="42"/>
+    </row>
+    <row r="56" spans="1:8" s="40" customFormat="1">
       <c r="A56" s="51"/>
       <c r="B56" s="63"/>
       <c r="C56" s="60"/>
@@ -6702,23 +7422,25 @@
       <c r="E56" s="60"/>
       <c r="F56" s="60"/>
       <c r="G56" s="42"/>
-    </row>
-    <row r="57" spans="1:7" s="40" customFormat="1">
+      <c r="H56" s="42"/>
+    </row>
+    <row r="57" spans="1:8" s="40" customFormat="1">
       <c r="A57" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="91" t="s">
-        <v>189</v>
-      </c>
       <c r="C57" s="91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
       <c r="G57" s="42"/>
-    </row>
-    <row r="58" spans="1:7" s="40" customFormat="1" ht="15.75" thickBot="1">
+      <c r="H57" s="42"/>
+    </row>
+    <row r="58" spans="1:8" s="40" customFormat="1" ht="15.75" thickBot="1">
       <c r="A58" s="51"/>
       <c r="B58" s="91"/>
       <c r="C58" s="91"/>
@@ -6726,34 +7448,37 @@
       <c r="E58" s="60"/>
       <c r="F58" s="60"/>
       <c r="G58" s="42"/>
-    </row>
-    <row r="59" spans="1:7" s="40" customFormat="1" ht="15.75" thickBot="1">
+      <c r="H58" s="42"/>
+    </row>
+    <row r="59" spans="1:8" s="40" customFormat="1" ht="15.75" thickBot="1">
       <c r="A59" s="51"/>
       <c r="B59" s="91"/>
       <c r="C59" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="96" t="s">
         <v>190</v>
-      </c>
-      <c r="D59" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="96" t="s">
-        <v>192</v>
       </c>
       <c r="F59" s="60"/>
       <c r="G59" s="42"/>
-    </row>
-    <row r="60" spans="1:7" s="40" customFormat="1">
+      <c r="H59" s="42"/>
+    </row>
+    <row r="60" spans="1:8" s="40" customFormat="1">
       <c r="A60" s="51"/>
       <c r="B60" s="91"/>
       <c r="C60" s="95"/>
       <c r="D60" s="98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="95"/>
       <c r="F60" s="60"/>
       <c r="G60" s="42"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="42"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="14" t="s">
         <v>10</v>
       </c>
@@ -6767,8 +7492,9 @@
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -6782,6 +7508,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -6809,8 +7536,8 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I29:N29"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
@@ -6825,23 +7552,24 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H32:M45"/>
+    <mergeCell ref="I32:N45"/>
     <mergeCell ref="B34:F34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
-    <hyperlink ref="B52" location="'Schedule of Fees'!A1" display="[tự động map theo Schedule of fees, khách hàng không cần điền phần này"/>
-    <hyperlink ref="C52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
-    <hyperlink ref="D52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
-    <hyperlink ref="E52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
-    <hyperlink ref="F52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
-    <hyperlink ref="E15" location="'Certification TM'!A1" display="[tick box here]"/>
-    <hyperlink ref="D59" r:id="rId1"/>
-    <hyperlink ref="D60" r:id="rId2"/>
-    <hyperlink ref="B53" r:id="rId3"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B52" location="'Schedule of Fees'!A1" display="[tự động map theo Schedule of fees, khách hàng không cần điền phần này" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="D52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="E52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="F52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="E15" location="'Certification TM'!A1" display="[tick box here]" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="D59" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="D60" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="B53" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6851,140 +7579,245 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB337B-DCD9-4E62-8CB1-DBCF06C1159B}">
+  <dimension ref="B4:J18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="97.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="81" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="82" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="84" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="85"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="86" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="82" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="88" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="82" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="82" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="82" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="30">
-      <c r="A21" s="82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="26.25">
-      <c r="A25" s="77" t="s">
-        <v>161</v>
-      </c>
+    <row r="4" spans="2:10">
+      <c r="B4" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="178" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="177" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="171" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="171" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="171" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="171" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="172" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="172"/>
+      <c r="D12" s="173">
+        <v>7</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="171" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="171" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="175" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="172" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173">
+        <v>2</v>
+      </c>
+      <c r="E16" s="173">
+        <v>0</v>
+      </c>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="171" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="171"/>
+      <c r="D18" s="174">
+        <v>2</v>
+      </c>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <mergeCells count="1">
+    <mergeCell ref="F4:I18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
+++ b/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\20180526\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Legaltech\20180429\Legaltech\Business\Khách hàng gửi\20180526\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAAD8B-9856-4C00-ACB2-C54A493216F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="Schedule of Fees" sheetId="14" r:id="rId11"/>
     <sheet name="Certification TM" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{A034D7FB-C69C-4295-A2B1-080CC055BF24}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,12 +72,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{EBC8699A-0EB6-4553-A917-BA6B247B30A5}">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,12 +107,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{58B61CF6-C73A-4298-A5EF-591FAB0AE6E4}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{DB23CC4C-8535-46BF-9A81-83DE01528877}">
+    <comment ref="J15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,12 +165,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A3866A14-9CD9-4C12-AF79-A57F6B8C5459}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E37755AB-F269-4DB1-BBAE-CF9FAF6422A7}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2D721294-FF86-46AD-AE30-6F7138AD308F}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{31651915-300C-46DC-BBF9-133207ADFAB4}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{B153155A-0AA8-45A9-BF4C-8D45610FE347}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{C26FCE4A-288D-4944-A037-B8517EF01071}">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{1F72FF72-572D-474F-8611-8CDAB3341CA7}">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{6AB20401-CE4E-474B-BB5A-E3B9EB3F1283}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{E1E8B134-F84B-4BC8-95CE-D915EDF7822B}">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="238">
   <si>
     <t>About</t>
   </si>
@@ -2526,11 +2525,14 @@
   <si>
     <t>Yes (1 hoặc  nhiều) cho điền số đơn ưu tiên</t>
   </si>
+  <si>
+    <t>Phần này dành cho khách hàng là member</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="62">
     <font>
       <sz val="11"/>
@@ -3701,183 +3703,8 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -3891,37 +3718,212 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4203,7 +4205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -4254,17 +4256,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="166" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="104" t="s">
         <v>212</v>
       </c>
@@ -4273,13 +4275,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="104" t="s">
         <v>214</v>
       </c>
@@ -4288,11 +4290,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4308,42 +4310,42 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="10.7" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:9" ht="67.7" customHeight="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="9" spans="1:9" ht="160.69999999999999" customHeight="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
@@ -4390,8 +4392,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4404,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4543,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4558,11 +4560,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="172"/>
     </row>
     <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="53" t="s">
@@ -4690,21 +4692,21 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="159"/>
-      <c r="C12" s="162">
+      <c r="B12" s="174"/>
+      <c r="C12" s="177">
         <f>SUM(C3:C11)</f>
         <v>2152</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="1" thickBot="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="178"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="15" spans="1:3" ht="26.25">
@@ -4731,7 +4733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4793,11 +4795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4836,33 +4838,33 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4878,35 +4880,35 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="10.7" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
@@ -4923,16 +4925,16 @@
       <c r="F10" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="93" customHeight="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>217</v>
@@ -4944,17 +4946,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="119.45" customHeight="1">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="119" t="s">
+      <c r="B15" s="131"/>
+      <c r="C15" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="H15" s="168" t="s">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="H15" s="110" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4964,16 +4966,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="118.7" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="118" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="H18" s="8" t="s">
         <v>219</v>
       </c>
@@ -5033,11 +5035,11 @@
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F13" location="'e-Application'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F16" location="'e-Monitor'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F19" location="'e-Watching'!A1" display="Learn more" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F13" location="'e-Application'!A1" display="Learn more"/>
+    <hyperlink ref="F16" location="'e-Monitor'!A1" display="Learn more"/>
+    <hyperlink ref="F19" location="'e-Watching'!A1" display="Learn more"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5051,10 +5053,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5090,33 +5092,33 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="91.7" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -5129,33 +5131,33 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="10.7" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="169" t="s">
+      <c r="H7" s="135" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="169"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
@@ -5163,15 +5165,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="87.6" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="8"/>
     </row>
     <row r="12" spans="1:8">
@@ -5186,15 +5188,15 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
@@ -5239,9 +5241,9 @@
     <mergeCell ref="A8:G8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F13" location="Signup!A1" display="New Application" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F13" location="Signup!A1" display="New Application"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5254,11 +5256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5294,33 +5296,33 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="125"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -5333,24 +5335,24 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="10.7" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -5361,24 +5363,27 @@
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="I9" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17.45" customHeight="1">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="26"/>
@@ -5392,14 +5397,14 @@
       <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="29"/>
@@ -5413,14 +5418,14 @@
       <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="29"/>
@@ -5431,14 +5436,14 @@
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="27"/>
@@ -5449,14 +5454,14 @@
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="27"/>
@@ -5467,108 +5472,108 @@
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="21">
         <v>4</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="21">
         <v>4</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="21">
         <v>5</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
     </row>
     <row r="30" spans="1:7" ht="24.75">
       <c r="A30" s="24" t="s">
@@ -5602,6 +5607,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A7:G7"/>
@@ -5618,16 +5629,10 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5640,10 +5645,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -5678,33 +5683,33 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
@@ -5717,13 +5722,13 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="10.7" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="30" t="s">
@@ -5859,15 +5864,15 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
@@ -5909,8 +5914,8 @@
     <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="F5" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="F5" location="Signup!A1" display="Signup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5922,12 +5927,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5963,27 +5966,27 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
       <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:8">
@@ -6040,11 +6043,11 @@
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
@@ -6100,8 +6103,8 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" location="Signup!A1" display="Signup" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C9" location="'New Applications'!A1" display="Login" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F10" location="Signup!A1" display="Signup"/>
+    <hyperlink ref="C9" location="'New Applications'!A1" display="Login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6114,7 +6117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -6152,215 +6155,215 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:7" ht="10.7" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="6" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
       <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
       <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7">
@@ -6395,6 +6398,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -6411,20 +6419,15 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A7" location="'Drafting New Application'!A1" display="Request for trademark registration" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="D7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="F7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="A7" location="'Drafting New Application'!A1" display="Request for trademark registration"/>
+    <hyperlink ref="B7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="C7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="D7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="E7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
+    <hyperlink ref="F7" location="'Drafting New Application'!A1" display="'Drafting New Application'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6437,10 +6440,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -6477,49 +6480,49 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="107"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="10.7" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
       <c r="H6" s="108"/>
       <c r="I6" s="52" t="s">
         <v>115</v>
@@ -6529,12 +6532,12 @@
       <c r="A7" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -6544,12 +6547,12 @@
       <c r="B8" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
     </row>
@@ -6558,12 +6561,12 @@
       <c r="B9" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
     </row>
@@ -6571,25 +6574,25 @@
       <c r="A10" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="146" t="s">
+      <c r="C10" s="147"/>
+      <c r="D10" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="152"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:9" s="40" customFormat="1" ht="122.1" customHeight="1" thickBot="1">
       <c r="A11" s="48"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="151"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
     </row>
@@ -6609,13 +6612,13 @@
     </row>
     <row r="13" spans="1:9" s="40" customFormat="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="50" t="s">
         <v>109</v>
       </c>
@@ -6625,11 +6628,11 @@
     </row>
     <row r="14" spans="1:9" s="40" customFormat="1">
       <c r="A14" s="48"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="152" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="50" t="s">
         <v>109</v>
       </c>
@@ -6640,10 +6643,10 @@
     <row r="15" spans="1:9" s="40" customFormat="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="94" t="s">
         <v>109</v>
       </c>
@@ -6701,43 +6704,43 @@
       <c r="A20" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="159" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="135" t="s">
+      <c r="F20" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="135" t="s">
+      <c r="G20" s="159" t="s">
         <v>155</v>
       </c>
       <c r="H20" s="109"/>
     </row>
     <row r="21" spans="1:14" s="40" customFormat="1" ht="57" customHeight="1">
       <c r="A21" s="48"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
       <c r="H21" s="109"/>
-      <c r="I21" s="136" t="s">
+      <c r="I21" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
     </row>
     <row r="22" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="48"/>
@@ -6750,7 +6753,7 @@
       <c r="D22" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="141">
+      <c r="E22" s="160">
         <v>1</v>
       </c>
       <c r="F22" s="40">
@@ -6776,7 +6779,7 @@
       <c r="D23" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="141"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="40">
         <v>1</v>
       </c>
@@ -6800,7 +6803,7 @@
       <c r="D24" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="141"/>
+      <c r="E24" s="160"/>
       <c r="F24" s="40">
         <v>1</v>
       </c>
@@ -6824,7 +6827,7 @@
       <c r="D25" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="141"/>
+      <c r="E25" s="160"/>
       <c r="F25" s="40">
         <v>1</v>
       </c>
@@ -6848,7 +6851,7 @@
       <c r="D26" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="141"/>
+      <c r="E26" s="160"/>
       <c r="F26" s="40">
         <v>1</v>
       </c>
@@ -6872,7 +6875,7 @@
       <c r="D27" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="141"/>
+      <c r="E27" s="160"/>
       <c r="F27" s="40">
         <v>1</v>
       </c>
@@ -6896,7 +6899,7 @@
       <c r="D28" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="141"/>
+      <c r="E28" s="160"/>
       <c r="F28" s="40">
         <v>1</v>
       </c>
@@ -6924,14 +6927,14 @@
         <v>1</v>
       </c>
       <c r="H29" s="73"/>
-      <c r="I29" s="136" t="s">
+      <c r="I29" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
     </row>
     <row r="30" spans="1:14" s="40" customFormat="1" ht="15.75">
       <c r="A30" s="48"/>
@@ -6944,7 +6947,7 @@
       <c r="D30" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="141">
+      <c r="E30" s="160">
         <v>1</v>
       </c>
       <c r="F30" s="68">
@@ -6970,7 +6973,7 @@
       <c r="D31" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="141"/>
+      <c r="E31" s="160"/>
       <c r="F31" s="68">
         <v>1</v>
       </c>
@@ -6998,14 +7001,14 @@
         <v>-4</v>
       </c>
       <c r="H32" s="73"/>
-      <c r="I32" s="133" t="s">
+      <c r="I32" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167"/>
     </row>
     <row r="33" spans="1:14" s="40" customFormat="1">
       <c r="A33" s="67"/>
@@ -7018,135 +7021,135 @@
         <v>0</v>
       </c>
       <c r="H33" s="73"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
     </row>
     <row r="34" spans="1:14" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="51"/>
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
       <c r="G34" s="69">
         <f>G29+G33</f>
         <v>1</v>
       </c>
       <c r="H34" s="69"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
     </row>
     <row r="35" spans="1:14" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="42">
         <v>0</v>
       </c>
       <c r="H35" s="42"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
     </row>
     <row r="36" spans="1:14" s="40" customFormat="1">
       <c r="A36" s="45"/>
       <c r="B36" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
     </row>
     <row r="37" spans="1:14" s="40" customFormat="1">
       <c r="A37" s="45"/>
       <c r="B37" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="132" t="s">
+      <c r="C37" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
     </row>
     <row r="38" spans="1:14" s="40" customFormat="1">
       <c r="A38" s="45"/>
       <c r="B38" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="C38" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="167"/>
     </row>
     <row r="39" spans="1:14" s="40" customFormat="1">
       <c r="A39" s="63"/>
       <c r="B39" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="132" t="s">
+      <c r="C39" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="167"/>
     </row>
     <row r="40" spans="1:14" s="40" customFormat="1">
       <c r="A40" s="63"/>
@@ -7157,12 +7160,12 @@
       <c r="F40" s="60"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
     </row>
     <row r="41" spans="1:14" s="40" customFormat="1">
       <c r="A41" s="51" t="s">
@@ -7181,12 +7184,12 @@
       <c r="H41" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="167"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="167"/>
     </row>
     <row r="42" spans="1:14" s="40" customFormat="1" ht="51" customHeight="1">
       <c r="A42" s="45"/>
@@ -7203,74 +7206,74 @@
       <c r="H42" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="167"/>
+      <c r="L42" s="167"/>
+      <c r="M42" s="167"/>
+      <c r="N42" s="167"/>
     </row>
     <row r="43" spans="1:14" s="40" customFormat="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="138" t="s">
+      <c r="C43" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
       <c r="F43" s="89" t="s">
         <v>109</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167"/>
+      <c r="N43" s="167"/>
     </row>
     <row r="44" spans="1:14" s="40" customFormat="1" ht="14.1" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="138" t="s">
+      <c r="B44" s="165"/>
+      <c r="C44" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
       <c r="F44" s="89" t="s">
         <v>109</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="167"/>
+      <c r="K44" s="167"/>
+      <c r="L44" s="167"/>
+      <c r="M44" s="167"/>
+      <c r="N44" s="167"/>
     </row>
     <row r="45" spans="1:14" s="40" customFormat="1" ht="60">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="138" t="s">
+      <c r="C45" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
       <c r="F45" s="90" t="s">
         <v>108</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="167"/>
+      <c r="K45" s="167"/>
+      <c r="L45" s="167"/>
+      <c r="M45" s="167"/>
+      <c r="N45" s="167"/>
     </row>
     <row r="46" spans="1:14" s="40" customFormat="1">
       <c r="A46" s="45"/>
@@ -7313,11 +7316,11 @@
       <c r="B49" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="138" t="s">
+      <c r="C49" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="163"/>
       <c r="F49" s="89" t="s">
         <v>109</v>
       </c>
@@ -7327,11 +7330,11 @@
     <row r="50" spans="1:8" s="40" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
-      <c r="C50" s="138" t="s">
+      <c r="C50" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
       <c r="F50" s="89" t="s">
         <v>109</v>
       </c>
@@ -7341,9 +7344,9 @@
     <row r="51" spans="1:8" s="40" customFormat="1">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
       <c r="F51" s="60"/>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
@@ -7352,13 +7355,13 @@
       <c r="A52" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="137" t="s">
+      <c r="B52" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="162"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
     </row>
@@ -7372,10 +7375,10 @@
       <c r="C53" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="131" t="s">
+      <c r="D53" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="131"/>
+      <c r="E53" s="166"/>
       <c r="F53" s="92" t="s">
         <v>109</v>
       </c>
@@ -7388,10 +7391,10 @@
       <c r="C54" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="131" t="s">
+      <c r="D54" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="131"/>
+      <c r="E54" s="166"/>
       <c r="F54" s="89" t="s">
         <v>109</v>
       </c>
@@ -7403,11 +7406,11 @@
       <c r="B55" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
       <c r="F55" s="89" t="s">
         <v>109</v>
       </c>
@@ -7512,6 +7515,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="I32:N45"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -7528,44 +7557,18 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="I32:N45"/>
-    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="Signup!A1" display="Sign up" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B52" location="'Schedule of Fees'!A1" display="[tự động map theo Schedule of fees, khách hàng không cần điền phần này" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="D52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="E52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="F52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="E15" location="'Certification TM'!A1" display="[tick box here]" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="D59" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="D60" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="B53" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
+    <hyperlink ref="B52" location="'Schedule of Fees'!A1" display="[tự động map theo Schedule of fees, khách hàng không cần điền phần này"/>
+    <hyperlink ref="C52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="D52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="E52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="F52" location="'Schedule of Fees'!A1" display="'Schedule of Fees'!A1"/>
+    <hyperlink ref="E15" location="'Certification TM'!A1" display="[tick box here]"/>
+    <hyperlink ref="D59" r:id="rId1"/>
+    <hyperlink ref="D60" r:id="rId2"/>
+    <hyperlink ref="B53" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7579,7 +7582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB337B-DCD9-4E62-8CB1-DBCF06C1159B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7595,222 +7598,222 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="111" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="178" t="s">
+      <c r="E4" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="169" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="177" t="s">
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="117" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="171" t="s">
+      <c r="D5" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="171" t="s">
+      <c r="C9" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="171" t="s">
+      <c r="D11" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173">
+      <c r="C12" s="113"/>
+      <c r="D12" s="114">
         <v>7</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="171" t="s">
+      <c r="D15" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="175" t="s">
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="116" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173">
+      <c r="C16" s="113"/>
+      <c r="D16" s="114">
         <v>2</v>
       </c>
-      <c r="E16" s="173">
+      <c r="E16" s="114">
         <v>0</v>
       </c>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="174">
+      <c r="C18" s="112"/>
+      <c r="D18" s="115">
         <v>2</v>
       </c>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
+++ b/Business/Khách hàng gửi/20180526/260518 Webinterface.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Legaltech\20180429\Legaltech\Business\Khách hàng gửi\20180526\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Legaltech\Business\Khách hàng gửi\20180526\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Schedule of Fees" sheetId="14" r:id="rId11"/>
     <sheet name="Certification TM" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="247">
   <si>
     <t>About</t>
   </si>
@@ -2528,11 +2528,38 @@
   <si>
     <t>Phần này dành cho khách hàng là member</t>
   </si>
+  <si>
+    <t>Số đơn phân cách nhau bởi dấu , split theo dấu phẩy bao nhiêu item nhân với hệ số 600.</t>
+  </si>
+  <si>
+    <t>lệ phí công bố đơn</t>
+  </si>
+  <si>
+    <t>đơn ưu tiên</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>= với số class STT A4</t>
+  </si>
+  <si>
+    <t>= với A5</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>fixed cứng là 1</t>
+  </si>
+  <si>
+    <t>=A5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="62">
     <font>
       <sz val="11"/>
@@ -3430,7 +3457,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3780,12 +3807,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3796,9 +3823,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3838,36 +3895,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3898,6 +3925,16 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3941,6 +3978,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3438525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4800600"/>
+          <a:ext cx="3438525" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4546,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4559,14 +4656,14 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="170" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="171"/>
       <c r="C1" s="172"/>
     </row>
-    <row r="2" spans="1:3" ht="28.5">
+    <row r="2" spans="1:5" ht="28.5">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>
@@ -4577,7 +4674,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="56" t="s">
         <v>145</v>
       </c>
@@ -4589,7 +4686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="56" t="s">
         <v>119</v>
       </c>
@@ -4601,8 +4698,11 @@
         <f>100*B4</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="33">
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33">
       <c r="A5" s="56" t="s">
         <v>120</v>
       </c>
@@ -4614,8 +4714,11 @@
         <f>22*B5</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="56" t="s">
         <v>121</v>
       </c>
@@ -4627,20 +4730,26 @@
         <f>600*B6</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="56" t="s">
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="180">
         <v>1</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="181">
         <f>120*B7</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
+      <c r="D7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="56" t="s">
         <v>123</v>
       </c>
@@ -4652,8 +4761,11 @@
         <f>180*B8</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
+      <c r="E8" s="182" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="56" t="s">
         <v>124</v>
       </c>
@@ -4665,8 +4777,11 @@
         <f>30*B9</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="182" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="56" t="s">
         <v>125</v>
       </c>
@@ -4677,8 +4792,11 @@
         <f>550*B10</f>
         <v>550</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="33">
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33">
       <c r="A11" s="56" t="s">
         <v>126</v>
       </c>
@@ -4690,8 +4808,11 @@
         <f>120*B11</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="182" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="173" t="s">
         <v>127</v>
       </c>
@@ -4701,17 +4822,22 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39" customHeight="1" thickBot="1">
+    <row r="13" spans="1:5" ht="39" customHeight="1" thickBot="1">
       <c r="A13" s="175" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="176"/>
       <c r="C13" s="178"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickTop="1"/>
-    <row r="15" spans="1:3" ht="26.25">
+    <row r="14" spans="1:5" ht="15.75" thickTop="1"/>
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="77" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4849,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5259,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5296,10 +5423,10 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="140"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="23"/>
       <c r="D3" s="132" t="s">
         <v>20</v>
@@ -5344,15 +5471,15 @@
       <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -5376,14 +5503,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.45" customHeight="1">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="26"/>
@@ -5436,14 +5563,14 @@
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="27"/>
@@ -5472,13 +5599,13 @@
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
@@ -5503,13 +5630,13 @@
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7">
@@ -5607,12 +5734,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:G6"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A7:G7"/>
@@ -5629,6 +5750,12 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
@@ -6398,11 +6525,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -6419,6 +6541,11 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
@@ -6514,15 +6641,15 @@
       <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="108"/>
       <c r="I6" s="52" t="s">
         <v>115</v>
@@ -6532,12 +6659,12 @@
       <c r="A7" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -6547,12 +6674,12 @@
       <c r="B8" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
     </row>
@@ -6561,12 +6688,12 @@
       <c r="B9" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
     </row>
@@ -6574,25 +6701,25 @@
       <c r="A10" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="157"/>
+      <c r="D10" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="151"/>
-      <c r="F10" s="152"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:9" s="40" customFormat="1" ht="122.1" customHeight="1" thickBot="1">
       <c r="A11" s="48"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
     </row>
@@ -6612,13 +6739,13 @@
     </row>
     <row r="13" spans="1:9" s="40" customFormat="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="50" t="s">
         <v>109</v>
       </c>
@@ -6628,11 +6755,11 @@
     </row>
     <row r="14" spans="1:9" s="40" customFormat="1">
       <c r="A14" s="48"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="156" t="s">
+      <c r="B14" s="149"/>
+      <c r="C14" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="50" t="s">
         <v>109</v>
       </c>
@@ -6643,10 +6770,10 @@
     <row r="15" spans="1:9" s="40" customFormat="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="94" t="s">
         <v>109</v>
       </c>
@@ -6704,43 +6831,43 @@
       <c r="A20" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="159" t="s">
+      <c r="E20" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="159" t="s">
+      <c r="F20" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="159" t="s">
+      <c r="G20" s="149" t="s">
         <v>155</v>
       </c>
       <c r="H20" s="109"/>
     </row>
     <row r="21" spans="1:14" s="40" customFormat="1" ht="57" customHeight="1">
       <c r="A21" s="48"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
       <c r="H21" s="109"/>
-      <c r="I21" s="161" t="s">
+      <c r="I21" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
     </row>
     <row r="22" spans="1:14" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="48"/>
@@ -6753,7 +6880,7 @@
       <c r="D22" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="155">
         <v>1</v>
       </c>
       <c r="F22" s="40">
@@ -6779,7 +6906,7 @@
       <c r="D23" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="160"/>
+      <c r="E23" s="155"/>
       <c r="F23" s="40">
         <v>1</v>
       </c>
@@ -6803,7 +6930,7 @@
       <c r="D24" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="160"/>
+      <c r="E24" s="155"/>
       <c r="F24" s="40">
         <v>1</v>
       </c>
@@ -6827,7 +6954,7 @@
       <c r="D25" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="160"/>
+      <c r="E25" s="155"/>
       <c r="F25" s="40">
         <v>1</v>
       </c>
@@ -6851,7 +6978,7 @@
       <c r="D26" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="160"/>
+      <c r="E26" s="155"/>
       <c r="F26" s="40">
         <v>1</v>
       </c>
@@ -6875,7 +7002,7 @@
       <c r="D27" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="160"/>
+      <c r="E27" s="155"/>
       <c r="F27" s="40">
         <v>1</v>
       </c>
@@ -6899,7 +7026,7 @@
       <c r="D28" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="160"/>
+      <c r="E28" s="155"/>
       <c r="F28" s="40">
         <v>1</v>
       </c>
@@ -6927,14 +7054,14 @@
         <v>1</v>
       </c>
       <c r="H29" s="73"/>
-      <c r="I29" s="161" t="s">
+      <c r="I29" s="150" t="s">
         <v>157</v>
       </c>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
     </row>
     <row r="30" spans="1:14" s="40" customFormat="1" ht="15.75">
       <c r="A30" s="48"/>
@@ -6947,7 +7074,7 @@
       <c r="D30" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="160">
+      <c r="E30" s="155">
         <v>1</v>
       </c>
       <c r="F30" s="68">
@@ -6973,7 +7100,7 @@
       <c r="D31" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="160"/>
+      <c r="E31" s="155"/>
       <c r="F31" s="68">
         <v>1</v>
       </c>
@@ -7001,14 +7128,14 @@
         <v>-4</v>
       </c>
       <c r="H32" s="73"/>
-      <c r="I32" s="167" t="s">
+      <c r="I32" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
     </row>
     <row r="33" spans="1:14" s="40" customFormat="1">
       <c r="A33" s="67"/>
@@ -7021,135 +7148,135 @@
         <v>0</v>
       </c>
       <c r="H33" s="73"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
     </row>
     <row r="34" spans="1:14" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="51"/>
-      <c r="B34" s="168" t="s">
+      <c r="B34" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
       <c r="G34" s="69">
         <f>G29+G33</f>
         <v>1</v>
       </c>
       <c r="H34" s="69"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
     </row>
     <row r="35" spans="1:14" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
       <c r="G35" s="42">
         <v>0</v>
       </c>
       <c r="H35" s="42"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
     </row>
     <row r="36" spans="1:14" s="40" customFormat="1">
       <c r="A36" s="45"/>
       <c r="B36" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="145" t="s">
+      <c r="C36" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
     </row>
     <row r="37" spans="1:14" s="40" customFormat="1">
       <c r="A37" s="45"/>
       <c r="B37" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="145" t="s">
+      <c r="C37" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
     </row>
     <row r="38" spans="1:14" s="40" customFormat="1">
       <c r="A38" s="45"/>
       <c r="B38" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="145" t="s">
+      <c r="C38" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
     </row>
     <row r="39" spans="1:14" s="40" customFormat="1">
       <c r="A39" s="63"/>
       <c r="B39" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="145" t="s">
+      <c r="C39" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="167"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
     </row>
     <row r="40" spans="1:14" s="40" customFormat="1">
       <c r="A40" s="63"/>
@@ -7160,12 +7287,12 @@
       <c r="F40" s="60"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
     </row>
     <row r="41" spans="1:14" s="40" customFormat="1">
       <c r="A41" s="51" t="s">
@@ -7184,12 +7311,12 @@
       <c r="H41" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
     </row>
     <row r="42" spans="1:14" s="40" customFormat="1" ht="51" customHeight="1">
       <c r="A42" s="45"/>
@@ -7206,74 +7333,74 @@
       <c r="H42" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
     </row>
     <row r="43" spans="1:14" s="40" customFormat="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="163" t="s">
+      <c r="C43" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
       <c r="F43" s="89" t="s">
         <v>109</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="167"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
     </row>
     <row r="44" spans="1:14" s="40" customFormat="1" ht="14.1" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="163" t="s">
+      <c r="B44" s="154"/>
+      <c r="C44" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
       <c r="F44" s="89" t="s">
         <v>109</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="167"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
     </row>
     <row r="45" spans="1:14" s="40" customFormat="1" ht="60">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="163" t="s">
+      <c r="C45" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
       <c r="F45" s="90" t="s">
         <v>108</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167"/>
-      <c r="K45" s="167"/>
-      <c r="L45" s="167"/>
-      <c r="M45" s="167"/>
-      <c r="N45" s="167"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
     </row>
     <row r="46" spans="1:14" s="40" customFormat="1">
       <c r="A46" s="45"/>
@@ -7316,11 +7443,11 @@
       <c r="B49" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="163" t="s">
+      <c r="C49" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="163"/>
-      <c r="E49" s="163"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
       <c r="F49" s="89" t="s">
         <v>109</v>
       </c>
@@ -7330,11 +7457,11 @@
     <row r="50" spans="1:8" s="40" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
-      <c r="C50" s="163" t="s">
+      <c r="C50" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="89" t="s">
         <v>109</v>
       </c>
@@ -7344,9 +7471,9 @@
     <row r="51" spans="1:8" s="40" customFormat="1">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
       <c r="F51" s="60"/>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
@@ -7355,13 +7482,13 @@
       <c r="A52" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="162"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="162"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
     </row>
@@ -7375,10 +7502,10 @@
       <c r="C53" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="166" t="s">
+      <c r="D53" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="166"/>
+      <c r="E53" s="145"/>
       <c r="F53" s="92" t="s">
         <v>109</v>
       </c>
@@ -7391,10 +7518,10 @@
       <c r="C54" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="166" t="s">
+      <c r="D54" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="166"/>
+      <c r="E54" s="145"/>
       <c r="F54" s="89" t="s">
         <v>109</v>
       </c>
@@ -7406,11 +7533,11 @@
       <c r="B55" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="166" t="s">
+      <c r="C55" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
       <c r="F55" s="89" t="s">
         <v>109</v>
       </c>
@@ -7515,32 +7642,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="I32:N45"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -7557,6 +7658,32 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="I32:N45"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" location="Signup!A1" display="Sign up"/>
